--- a/Symphony/2021/Others/Document/Final/Mugdho Corporation Salary Top Sheet.xlsx
+++ b/Symphony/2021/Others/Document/Final/Mugdho Corporation Salary Top Sheet.xlsx
@@ -512,7 +512,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F13" sqref="F12:F13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/2021/Others/Document/Final/Mugdho Corporation Salary Top Sheet.xlsx
+++ b/Symphony/2021/Others/Document/Final/Mugdho Corporation Salary Top Sheet.xlsx
@@ -16,17 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
   <si>
-    <t>May_2020</t>
-  </si>
-  <si>
-    <t>June_2020</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
@@ -70,13 +64,22 @@
   </si>
   <si>
     <t>April_2021</t>
+  </si>
+  <si>
+    <t>May_2021</t>
+  </si>
+  <si>
+    <t>June_2021</t>
+  </si>
+  <si>
+    <t>Distributior: Symphony Mobile(Edison Group)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,6 +97,13 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -167,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -204,6 +214,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,178 +539,210 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>71450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C6" s="3">
+        <v>48700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>80700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>72200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3">
-        <v>48700</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
-        <v>71450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>48700</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
       </c>
       <c r="C8" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="3">
         <v>80700</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="3">
         <v>80700</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3">
+        <v>70600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="3">
-        <v>80700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="C12" s="3">
+        <v>75600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C12" s="3">
-        <v>70600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>10</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="C13" s="3">
         <v>75600</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3">
+        <v>75100</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="3">
-        <v>75600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="C15" s="3">
+        <v>112800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="3">
-        <v>75100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="7">
-        <f>SUM(C4:C15)</f>
-        <v>860750</v>
+      <c r="C16" s="3">
+        <v>75300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="7">
+        <f>SUM(C5:C16)</f>
+        <v>927950</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
